--- a/IMKL2.x/3. extraregels/IMKL-2.0io-object-attributen-ExtraRegels.xlsx
+++ b/IMKL2.x/3. extraregels/IMKL-2.0io-object-attributen-ExtraRegels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\3. extraregels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCCE22F-1B3F-455F-8F9B-E17954A91693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4DFF89-3AA7-4731-9CE2-AFF381F9AD6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4680" windowWidth="29040" windowHeight="15840" tabRatio="875" firstSheet="25" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NL-WIBON" sheetId="27" r:id="rId1"/>
@@ -1377,11 +1377,11 @@
   </si>
   <si>
     <t>alleen bij orientatieverzoek
-alleen toegestaan indien niet voorbereidingCoordinatieCivieleWerken</t>
+alleen toegestaan indien niet voorbereidingMedegebruikFysiekeInfrastructuur en soortWerkzaamheden niet is ingevuld</t>
   </si>
   <si>
     <t>alleen bij orientatieverzoek
-alleen toegestaan indien niet voorbereidingMedegebruikFysiekeInfrastructuur</t>
+alleen toegestaan indien niet voorbereidingCoordinatieCivieleWerken en soortWerkzaamheden niet is ingevuld</t>
   </si>
 </sst>
 </file>
@@ -3521,7 +3521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -13053,8 +13053,8 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A34:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F39:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13715,7 +13715,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="120" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="120" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91" t="s">
         <v>383</v>
       </c>
@@ -13732,10 +13732,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="93" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="120" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="120" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="91" t="s">
         <v>384</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>29</v>
       </c>
       <c r="F35" s="93" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
